--- a/examples/sbtab-sbml/layout_model.xlsx
+++ b/examples/sbtab-sbml/layout_model.xlsx
@@ -7,60 +7,60 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="!Compartment" sheetId="1" r:id="rId1"/>
-    <sheet name="!Compound" sheetId="2" r:id="rId2"/>
-    <sheet name="!Definition" sheetId="3" r:id="rId3"/>
-    <sheet name="!Enzyme" sheetId="4" r:id="rId4"/>
-    <sheet name="!FbcObjective" sheetId="5" r:id="rId5"/>
-    <sheet name="!Gene" sheetId="6" r:id="rId6"/>
-    <sheet name="!Layout" sheetId="7" r:id="rId7"/>
-    <sheet name="!Measurement" sheetId="8" r:id="rId8"/>
-    <sheet name="!PbConfig" sheetId="9" r:id="rId9"/>
-    <sheet name="!Position" sheetId="10" r:id="rId10"/>
-    <sheet name="!Protein" sheetId="11" r:id="rId11"/>
-    <sheet name="!Quantity" sheetId="12" r:id="rId12"/>
-    <sheet name="!QuantityInfo" sheetId="13" r:id="rId13"/>
-    <sheet name="!QuantityMatrix" sheetId="14" r:id="rId14"/>
-    <sheet name="!Reaction" sheetId="15" r:id="rId15"/>
-    <sheet name="!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
-    <sheet name="!Regulator" sheetId="17" r:id="rId17"/>
-    <sheet name="!Relation" sheetId="18" r:id="rId18"/>
-    <sheet name="!Relationship" sheetId="19" r:id="rId19"/>
-    <sheet name="!SparseMatrix" sheetId="20" r:id="rId20"/>
-    <sheet name="!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
-    <sheet name="!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
-    <sheet name="!SparseMatrixRow" sheetId="23" r:id="rId23"/>
-    <sheet name="!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
-    <sheet name="!rxnconContingencyList" sheetId="25" r:id="rId25"/>
-    <sheet name="!rxnconReactionList" sheetId="26" r:id="rId26"/>
+    <sheet name="!!Compartment" sheetId="1" r:id="rId1"/>
+    <sheet name="!!Compound" sheetId="2" r:id="rId2"/>
+    <sheet name="!!Definition" sheetId="3" r:id="rId3"/>
+    <sheet name="!!Enzyme" sheetId="4" r:id="rId4"/>
+    <sheet name="!!FbcObjective" sheetId="5" r:id="rId5"/>
+    <sheet name="!!Gene" sheetId="6" r:id="rId6"/>
+    <sheet name="!!Layout" sheetId="7" r:id="rId7"/>
+    <sheet name="!!Measurement" sheetId="8" r:id="rId8"/>
+    <sheet name="!!PbConfig" sheetId="9" r:id="rId9"/>
+    <sheet name="!!Position" sheetId="10" r:id="rId10"/>
+    <sheet name="!!Protein" sheetId="11" r:id="rId11"/>
+    <sheet name="!!Quantity" sheetId="12" r:id="rId12"/>
+    <sheet name="!!QuantityInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="!!QuantityMatrix" sheetId="14" r:id="rId14"/>
+    <sheet name="!!Reaction" sheetId="15" r:id="rId15"/>
+    <sheet name="!!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
+    <sheet name="!!Regulator" sheetId="17" r:id="rId17"/>
+    <sheet name="!!Relation" sheetId="18" r:id="rId18"/>
+    <sheet name="!!Relationship" sheetId="19" r:id="rId19"/>
+    <sheet name="!!SparseMatrix" sheetId="20" r:id="rId20"/>
+    <sheet name="!!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
+    <sheet name="!!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
+    <sheet name="!!SparseMatrixRow" sheetId="23" r:id="rId23"/>
+    <sheet name="!!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
+    <sheet name="!!rxnconContingencyList" sheetId="25" r:id="rId25"/>
+    <sheet name="!!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Compartment'!$A$2:$T$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compound'!$A$2:$AI$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Layout'!$A$2:$M$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!PbConfig'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Quantity'!$A$2:$BW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityMatrix'!$A$2:$AW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!Reaction'!$A$2:$AU$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3:$T$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$AI$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2:$M$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2:$BW$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2:$AW$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2:$AU$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -72,7 +72,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6340,9 +6340,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="260">
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="261">
+  <si>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:12:01'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:12:01' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6411,7 @@
     <t>Compartment_1</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:12:01' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6477,7 +6480,7 @@
     <t>Species_2</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:12:01' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6492,7 +6495,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:12:01' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6513,7 +6516,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6528,7 +6531,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6558,7 +6561,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6666,7 +6669,7 @@
     <t>SpeciesReferenceGlyph_4</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6678,7 +6681,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6687,16 +6690,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6858,7 +6861,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 02:13:09' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6876,7 +6879,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6915,7 +6918,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -6993,7 +6996,7 @@
     <t xml:space="preserve">1 Species_2 &lt;=&gt; 1 Species_1 &lt;=&gt; </t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7005,7 +7008,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7017,7 +7020,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7032,13 +7035,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7047,13 +7050,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:12:04' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7062,19 +7065,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:12:04' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:12:04' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:12:04' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7095,7 +7098,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 02:13:10' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:12:04' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7493,10 +7496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7531,158 +7534,182 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.01" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:T3"/>
+  <autoFilter ref="A3:T4"/>
   <dataValidations count="20">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J4">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K3">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K4">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P4">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T4">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -7708,20 +7735,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7762,7 +7789,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7781,49 +7808,49 @@
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7902,7 +7929,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7981,229 +8008,229 @@
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -8482,7 +8509,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8505,61 +8532,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -8652,7 +8679,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8705,151 +8732,151 @@
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -9044,7 +9071,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9095,145 +9122,145 @@
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="AD2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="15.01" customHeight="1">
@@ -9250,11 +9277,11 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -9319,11 +9346,11 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -9545,7 +9572,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9555,22 +9582,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -9618,7 +9645,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9639,55 +9666,55 @@
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9770,7 +9797,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9784,34 +9811,34 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -9872,7 +9899,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9883,25 +9910,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -9953,7 +9980,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9992,109 +10019,109 @@
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.01" customHeight="1">
@@ -10110,7 +10137,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -10118,7 +10145,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -10155,7 +10182,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -10163,7 +10190,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -10326,20 +10353,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -10379,16 +10406,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -10424,20 +10451,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -10479,16 +10506,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -10524,7 +10551,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10533,19 +10560,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -10590,7 +10617,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10602,28 +10629,28 @@
     </row>
     <row r="2" spans="1:8" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -10678,7 +10705,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10694,40 +10721,40 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10794,7 +10821,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10803,19 +10830,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10860,7 +10887,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10883,61 +10910,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -11026,7 +11053,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11036,22 +11063,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -11099,7 +11126,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11125,70 +11152,70 @@
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -11286,7 +11313,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11303,52 +11330,52 @@
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.01" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -11367,14 +11394,14 @@
     </row>
     <row r="4" spans="1:13" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -11396,16 +11423,16 @@
     </row>
     <row r="5" spans="1:13" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
@@ -11425,16 +11452,16 @@
     </row>
     <row r="6" spans="1:13" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
@@ -11454,16 +11481,16 @@
     </row>
     <row r="7" spans="1:13" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
@@ -11483,16 +11510,16 @@
     </row>
     <row r="8" spans="1:13" ht="15.01" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4">
@@ -11512,19 +11539,19 @@
     </row>
     <row r="9" spans="1:13" ht="15.01" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H9" s="4">
         <v>165</v>
@@ -11539,19 +11566,19 @@
     </row>
     <row r="10" spans="1:13" ht="15.01" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H10" s="4">
         <v>165</v>
@@ -11566,21 +11593,21 @@
     </row>
     <row r="11" spans="1:13" ht="15.01" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" s="4">
         <v>165</v>
@@ -11595,21 +11622,21 @@
     </row>
     <row r="12" spans="1:13" ht="15.01" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H12" s="4">
         <v>195</v>
@@ -11624,21 +11651,21 @@
     </row>
     <row r="13" spans="1:13" ht="15.01" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H13" s="4">
         <v>165</v>
@@ -11653,21 +11680,21 @@
     </row>
     <row r="14" spans="1:13" ht="15.01" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="4">
         <v>165</v>
@@ -11682,21 +11709,21 @@
     </row>
     <row r="15" spans="1:13" ht="15.01" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="4">
         <v>165</v>
@@ -11711,21 +11738,21 @@
     </row>
     <row r="16" spans="1:13" ht="15.01" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="4">
         <v>195</v>
@@ -11740,21 +11767,21 @@
     </row>
     <row r="17" spans="1:13" ht="15.01" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="4">
         <v>165</v>
@@ -11769,21 +11796,21 @@
     </row>
     <row r="18" spans="1:13" ht="15.01" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H18" s="4">
         <v>165</v>
@@ -11798,19 +11825,19 @@
     </row>
     <row r="19" spans="1:13" ht="15.01" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H19" s="4">
         <v>235</v>
@@ -11825,19 +11852,19 @@
     </row>
     <row r="20" spans="1:13" ht="15.01" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" s="4">
         <v>235</v>
@@ -11852,21 +11879,21 @@
     </row>
     <row r="21" spans="1:13" ht="15.01" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H21" s="4">
         <v>235</v>
@@ -11881,21 +11908,21 @@
     </row>
     <row r="22" spans="1:13" ht="15.01" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="4">
         <v>205</v>
@@ -11910,21 +11937,21 @@
     </row>
     <row r="23" spans="1:13" ht="15.01" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H23" s="4">
         <v>235</v>
@@ -11939,21 +11966,21 @@
     </row>
     <row r="24" spans="1:13" ht="15.01" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H24" s="4">
         <v>235</v>
@@ -11968,21 +11995,21 @@
     </row>
     <row r="25" spans="1:13" ht="15.01" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H25" s="4">
         <v>235</v>
@@ -11997,21 +12024,21 @@
     </row>
     <row r="26" spans="1:13" ht="15.01" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H26" s="4">
         <v>205</v>
@@ -12026,21 +12053,21 @@
     </row>
     <row r="27" spans="1:13" ht="15.01" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H27" s="4">
         <v>235</v>
@@ -12055,21 +12082,21 @@
     </row>
     <row r="28" spans="1:13" ht="15.01" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H28" s="4">
         <v>235</v>
@@ -12152,7 +12179,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12161,19 +12188,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -12218,16 +12245,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sbtab-sbml/layout_model.xlsx
+++ b/examples/sbtab-sbml/layout_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="261">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:12:01'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:12:01' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:12:25'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6411,7 +6411,7 @@
     <t>Compartment_1</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:12:01' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6480,7 +6480,7 @@
     <t>Species_2</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:12:01' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6495,7 +6495,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:12:01' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6516,7 +6516,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6531,7 +6531,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6561,7 +6561,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6669,7 +6669,7 @@
     <t>SpeciesReferenceGlyph_4</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6681,7 +6681,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6690,16 +6690,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6861,7 +6861,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:12:02' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6879,7 +6879,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6918,7 +6918,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -6996,7 +6996,7 @@
     <t xml:space="preserve">1 Species_2 &lt;=&gt; 1 Species_1 &lt;=&gt; </t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7008,7 +7008,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7020,7 +7020,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7035,13 +7035,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7050,13 +7050,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:12:03' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:12:04' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7065,19 +7065,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:12:04' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:12:04' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:12:04' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7098,7 +7098,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:12:04' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7646,7 +7646,7 @@
       <c r="T4" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A3:T4"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4">
@@ -7752,7 +7752,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -7854,7 +7854,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:O2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -8234,7 +8234,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:BW2"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -8590,7 +8590,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -8880,7 +8880,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AW2"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -9402,7 +9402,7 @@
       <c r="AU4" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AU4"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
@@ -9601,7 +9601,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -9718,7 +9718,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:Q2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -9842,7 +9842,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -9932,7 +9932,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:G2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10215,7 +10215,7 @@
       <c r="AI4" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AI4"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
@@ -10370,7 +10370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10419,7 +10419,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10468,7 +10468,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -10519,7 +10519,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10576,7 +10576,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10654,7 +10654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:H2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -10846,7 +10846,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -10968,7 +10968,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11082,7 +11082,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11219,7 +11219,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:V2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -12110,7 +12110,7 @@
       <c r="M28" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:M28"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A28">
@@ -12204,7 +12204,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -12258,7 +12258,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">

--- a/examples/sbtab-sbml/layout_model.xlsx
+++ b/examples/sbtab-sbml/layout_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="261">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:12:25'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:02:50'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:02:50' objTablesVersion='0.0.8' document='TestModel layout'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6411,7 +6411,7 @@
     <t>Compartment_1</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:02:50' objTablesVersion='0.0.8' document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6480,7 +6480,7 @@
     <t>Species_2</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6495,7 +6495,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6516,7 +6516,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6531,7 +6531,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6561,7 +6561,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:02:50' objTablesVersion='0.0.8' document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6669,7 +6669,7 @@
     <t>SpeciesReferenceGlyph_4</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6681,7 +6681,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6690,16 +6690,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6861,7 +6861,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6879,7 +6879,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6918,7 +6918,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8' Document='TestModel layout'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:02:50' objTablesVersion='0.0.8' document='TestModel layout'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -6996,7 +6996,7 @@
     <t xml:space="preserve">1 Species_2 &lt;=&gt; 1 Species_1 &lt;=&gt; </t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7008,7 +7008,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7020,7 +7020,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7035,13 +7035,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7050,13 +7050,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7065,19 +7065,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7098,7 +7098,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:12:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab-sbml/layout_model.xlsx
+++ b/examples/sbtab-sbml/layout_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="261">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:02:50'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:02:50' objTablesVersion='0.0.8' document='TestModel layout'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:33:14'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' document='TestModel layout' tableFormat='row'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6411,7 +6411,7 @@
     <t>Compartment_1</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:02:50' objTablesVersion='0.0.8' document='TestModel layout'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' document='TestModel layout' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6480,7 +6480,7 @@
     <t>Species_2</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6495,7 +6495,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6516,7 +6516,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6531,7 +6531,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6561,7 +6561,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:02:50' objTablesVersion='0.0.8' document='TestModel layout'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' document='TestModel layout' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6669,7 +6669,7 @@
     <t>SpeciesReferenceGlyph_4</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6681,7 +6681,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6690,16 +6690,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6861,7 +6861,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6879,7 +6879,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6918,7 +6918,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:02:50' objTablesVersion='0.0.8' document='TestModel layout'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' document='TestModel layout' tableFormat='row'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -6996,7 +6996,7 @@
     <t xml:space="preserve">1 Species_2 &lt;=&gt; 1 Species_1 &lt;=&gt; </t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:02:50' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7008,7 +7008,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7020,7 +7020,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7035,13 +7035,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7050,13 +7050,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7065,19 +7065,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7098,7 +7098,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:02:51' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
